--- a/db/consultas.xlsx
+++ b/db/consultas.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20339"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hejevero\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7FF707-FA63-42D2-AEF5-4ECB6E0A20EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959BE924-195E-4820-B951-C5CD7665B233}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7545" activeTab="1" xr2:uid="{0557D2B3-091C-4AAC-ABDA-7549C45EC197}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7545" activeTab="3" xr2:uid="{0557D2B3-091C-4AAC-ABDA-7549C45EC197}"/>
   </bookViews>
   <sheets>
-    <sheet name="level" sheetId="2" r:id="rId1"/>
-    <sheet name="user" sheetId="1" r:id="rId2"/>
-    <sheet name="priority" sheetId="3" r:id="rId3"/>
+    <sheet name="function" sheetId="5" r:id="rId1"/>
+    <sheet name="level" sheetId="6" r:id="rId2"/>
+    <sheet name="user" sheetId="7" r:id="rId3"/>
+    <sheet name="system" sheetId="8" r:id="rId4"/>
+    <sheet name="warehouse" sheetId="9" r:id="rId5"/>
+    <sheet name="level_user_warehouse" sheetId="10" r:id="rId6"/>
+    <sheet name="old.level" sheetId="2" r:id="rId7"/>
+    <sheet name="old.user" sheetId="1" r:id="rId8"/>
+    <sheet name="old.priority" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="106">
   <si>
     <t>Tabla</t>
   </si>
@@ -195,6 +201,156 @@
   </si>
   <si>
     <t>Principalmente clientes</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>Columnas</t>
+  </si>
+  <si>
+    <t>Id_fun</t>
+  </si>
+  <si>
+    <t>Nam_fun</t>
+  </si>
+  <si>
+    <t>Sta_fun</t>
+  </si>
+  <si>
+    <t>Id_level</t>
+  </si>
+  <si>
+    <t>Nam_level</t>
+  </si>
+  <si>
+    <t>Sta_level</t>
+  </si>
+  <si>
+    <t>God</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>Id_user</t>
+  </si>
+  <si>
+    <t>Cod_user</t>
+  </si>
+  <si>
+    <t>Nam_user</t>
+  </si>
+  <si>
+    <t>Lasn_user</t>
+  </si>
+  <si>
+    <t>Nick_user</t>
+  </si>
+  <si>
+    <t>Pass_user</t>
+  </si>
+  <si>
+    <t>Dat_user</t>
+  </si>
+  <si>
+    <t>Sta_user</t>
+  </si>
+  <si>
+    <t>god1</t>
+  </si>
+  <si>
+    <t>adm1</t>
+  </si>
+  <si>
+    <t>Velasquez</t>
+  </si>
+  <si>
+    <t>Adminitrador</t>
+  </si>
+  <si>
+    <t>Principal</t>
+  </si>
+  <si>
+    <t>06-01-2021</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>Id_sys</t>
+  </si>
+  <si>
+    <t>user_Id_user</t>
+  </si>
+  <si>
+    <t>level_Id_level</t>
+  </si>
+  <si>
+    <t>warehouse</t>
+  </si>
+  <si>
+    <t>Id_wh</t>
+  </si>
+  <si>
+    <t>Cod_wh</t>
+  </si>
+  <si>
+    <t>Name_wh</t>
+  </si>
+  <si>
+    <t>Dat_wh</t>
+  </si>
+  <si>
+    <t>Cou_wh</t>
+  </si>
+  <si>
+    <t>Cit_wh</t>
+  </si>
+  <si>
+    <t>Dir_wh</t>
+  </si>
+  <si>
+    <t>Sta_wh</t>
+  </si>
+  <si>
+    <t>gino1</t>
+  </si>
+  <si>
+    <t>gino2</t>
+  </si>
+  <si>
+    <t>Gino Rodinis Ripley</t>
+  </si>
+  <si>
+    <t>Gino Rodinis Falabella</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>La Serena</t>
+  </si>
+  <si>
+    <t>Gregorio Cordovez 499</t>
+  </si>
+  <si>
+    <t>Alberto Solari 1400</t>
+  </si>
+  <si>
+    <t>level_user_warehouse</t>
+  </si>
+  <si>
+    <t>Id_luw</t>
+  </si>
+  <si>
+    <t>Sta_luw</t>
+  </si>
+  <si>
+    <t>warehouse_Id_wh</t>
+  </si>
+  <si>
+    <t>State_sys</t>
   </si>
 </sst>
 </file>
@@ -230,8 +386,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,11 +702,716 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1DA2CAC-BB47-4DB8-B72F-FD5740237F58}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="str">
+        <f>"INSERT INTO "&amp;B$1&amp;" ("&amp;B$2&amp;","&amp;C$2&amp;","&amp;D$2&amp;") VALUES ('"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"');"</f>
+        <v>INSERT INTO function (Id_fun,Nam_fun,Sta_fun) VALUES ('1','Ver','1');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" ref="E4:E6" si="0">"INSERT INTO "&amp;B$1&amp;" ("&amp;B$2&amp;","&amp;C$2&amp;","&amp;D$2&amp;") VALUES ('"&amp;B4&amp;"','"&amp;C4&amp;"','"&amp;D4&amp;"');"</f>
+        <v>INSERT INTO function (Id_fun,Nam_fun,Sta_fun) VALUES ('2','Agregar','2');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO function (Id_fun,Nam_fun,Sta_fun) VALUES ('3','Modificar','3');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO function (Id_fun,Nam_fun,Sta_fun) VALUES ('4','Eliminar','4');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB34776D-0845-4571-8E2F-2577A2CC4DAF}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="str">
+        <f>"insert into "&amp;B$1&amp;" ("&amp;B$2&amp;","&amp;C$2&amp;","&amp;D$2&amp;") VALUES ('"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"');"</f>
+        <v>insert into level (Id_level,Nam_level,Sta_level) VALUES ('1','God','1');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" ref="E4:E8" si="0">"insert into "&amp;B$1&amp;" ("&amp;B$2&amp;","&amp;C$2&amp;","&amp;D$2&amp;") VALUES ('"&amp;B4&amp;"','"&amp;C4&amp;"','"&amp;D4&amp;"');"</f>
+        <v>insert into level (Id_level,Nam_level,Sta_level) VALUES ('2','Administrador','2');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into level (Id_level,Nam_level,Sta_level) VALUES ('3','Supervisor','3');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into level (Id_level,Nam_level,Sta_level) VALUES ('4','Vendedor','4');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into level (Id_level,Nam_level,Sta_level) VALUES ('5','Cliente','5');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into level (Id_level,Nam_level,Sta_level) VALUES ('6','Usuario','6');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56FDED12-22F9-4F75-9E32-4810ACDB50AB}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="str">
+        <f>"INSERT INTO "&amp;B$1&amp;" ("&amp;B$2&amp;","&amp;C$2&amp;","&amp;D$2&amp;","&amp;E$2&amp;","&amp;F$2&amp;","&amp;G$2&amp;","&amp;H$2&amp;","&amp;I$2&amp;") VALUES ('"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"');"</f>
+        <v>INSERT INTO user (Id_user,Cod_user,Nam_user,Lasn_user,Nick_user,Pass_user,Dat_user,Sta_user) VALUES ('1','god1','Helmo','Velasquez','hejevero','Hejevero1993','06-01-2021','1');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="str">
+        <f>"INSERT INTO "&amp;B$1&amp;" ("&amp;B$2&amp;","&amp;C$2&amp;","&amp;D$2&amp;","&amp;E$2&amp;","&amp;F$2&amp;","&amp;G$2&amp;","&amp;H$2&amp;","&amp;I$2&amp;") VALUES ('"&amp;B4&amp;"','"&amp;C4&amp;"','"&amp;D4&amp;"','"&amp;E4&amp;"','"&amp;F4&amp;"','"&amp;G4&amp;"','"&amp;H4&amp;"','"&amp;I4&amp;"');"</f>
+        <v>INSERT INTO user (Id_user,Cod_user,Nam_user,Lasn_user,Nick_user,Pass_user,Dat_user,Sta_user) VALUES ('2','adm1','Adminitrador','Principal','admin','admin','06-01-2021','1');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B2F3BAA-0719-487D-80D3-31E98ADF8247}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="str">
+        <f>"INSERT INTO "&amp;B$1&amp;" ("&amp;B$2&amp;","&amp;C$2&amp;","&amp;D$2&amp;","&amp;E$2&amp;") VALUES ('"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"');"</f>
+        <v>INSERT INTO system (Id_sys,State_sys,user_Id_user,level_Id_level) VALUES ('1','2','1','1');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="str">
+        <f>"INSERT INTO "&amp;B$1&amp;" ("&amp;B$2&amp;","&amp;C$2&amp;","&amp;D$2&amp;","&amp;E$2&amp;") VALUES ('"&amp;B4&amp;"','"&amp;C4&amp;"','"&amp;D4&amp;"','"&amp;E4&amp;"');"</f>
+        <v>INSERT INTO system (Id_sys,State_sys,user_Id_user,level_Id_level) VALUES ('2','1','1','2');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9578B6-3FA4-4961-B4B3-4880E4A28AE3}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="str">
+        <f>"INSERT INTO "&amp;B$1&amp;" ("&amp;B$2&amp;","&amp;C$2&amp;","&amp;D$2&amp;","&amp;E$2&amp;","&amp;F$2&amp;","&amp;G$2&amp;","&amp;H$2&amp;","&amp;I$2&amp;") VALUES ('"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"');"</f>
+        <v>INSERT INTO warehouse (Id_wh,Cod_wh,Name_wh,Dat_wh,Cou_wh,Cit_wh,Dir_wh,Sta_wh) VALUES ('1','gino1','Gino Rodinis Ripley','06-01-2021','Chile','La Serena','Gregorio Cordovez 499','1');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="str">
+        <f>"INSERT INTO "&amp;B$1&amp;" ("&amp;B$2&amp;","&amp;C$2&amp;","&amp;D$2&amp;","&amp;E$2&amp;","&amp;F$2&amp;","&amp;G$2&amp;","&amp;H$2&amp;","&amp;I$2&amp;") VALUES ('"&amp;B4&amp;"','"&amp;C4&amp;"','"&amp;D4&amp;"','"&amp;E4&amp;"','"&amp;F4&amp;"','"&amp;G4&amp;"','"&amp;H4&amp;"','"&amp;I4&amp;"');"</f>
+        <v>INSERT INTO warehouse (Id_wh,Cod_wh,Name_wh,Dat_wh,Cou_wh,Cit_wh,Dir_wh,Sta_wh) VALUES ('2','gino2','Gino Rodinis Falabella','06-01-2021','Chile','La Serena','Alberto Solari 1400','1');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0866B2-056D-490A-9391-9AE94CBDFBB3}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="str">
+        <f>"INSERT INTO "&amp;B$1&amp;" ("&amp;B$2&amp;","&amp;C$2&amp;","&amp;D$2&amp;","&amp;E$2&amp;","&amp;F$2&amp;") VALUES ('"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"');"</f>
+        <v>INSERT INTO level_user_warehouse (Id_luw,Sta_luw,user_Id_user,level_Id_level,warehouse_Id_wh) VALUES ('1','1','1','1','1');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" ref="G4:G6" si="0">"INSERT INTO "&amp;B$1&amp;" ("&amp;B$2&amp;","&amp;C$2&amp;","&amp;D$2&amp;","&amp;E$2&amp;","&amp;F$2&amp;") VALUES ('"&amp;B4&amp;"','"&amp;C4&amp;"','"&amp;D4&amp;"','"&amp;E4&amp;"','"&amp;F4&amp;"');"</f>
+        <v>INSERT INTO level_user_warehouse (Id_luw,Sta_luw,user_Id_user,level_Id_level,warehouse_Id_wh) VALUES ('2','1','2','2','1');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO level_user_warehouse (Id_luw,Sta_luw,user_Id_user,level_Id_level,warehouse_Id_wh) VALUES ('3','1','1','1','2');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO level_user_warehouse (Id_luw,Sta_luw,user_Id_user,level_Id_level,warehouse_Id_wh) VALUES ('4','1','2','2','2');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F1A767C-5E41-4655-B589-BD2426652570}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E6"/>
+      <selection activeCell="E6" sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,11 +1512,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA482B1-B850-43B5-9E5B-DA44FEB39EF7}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3:J8"/>
     </sheetView>
   </sheetViews>
@@ -896,7 +1758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7DFD83-82C9-48F8-AE99-BA46C77CC683}">
   <dimension ref="A1:F6"/>
   <sheetViews>

--- a/db/consultas.xlsx
+++ b/db/consultas.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hejevero\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959BE924-195E-4820-B951-C5CD7665B233}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE26F69-51D9-4BD5-8769-B68FEB660874}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7545" activeTab="3" xr2:uid="{0557D2B3-091C-4AAC-ABDA-7549C45EC197}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7545" xr2:uid="{0557D2B3-091C-4AAC-ABDA-7549C45EC197}"/>
   </bookViews>
   <sheets>
-    <sheet name="function" sheetId="5" r:id="rId1"/>
-    <sheet name="level" sheetId="6" r:id="rId2"/>
-    <sheet name="user" sheetId="7" r:id="rId3"/>
-    <sheet name="system" sheetId="8" r:id="rId4"/>
-    <sheet name="warehouse" sheetId="9" r:id="rId5"/>
-    <sheet name="level_user_warehouse" sheetId="10" r:id="rId6"/>
-    <sheet name="old.level" sheetId="2" r:id="rId7"/>
-    <sheet name="old.user" sheetId="1" r:id="rId8"/>
-    <sheet name="old.priority" sheetId="3" r:id="rId9"/>
+    <sheet name="hejevero2" sheetId="5" r:id="rId1"/>
+    <sheet name="old.level" sheetId="2" r:id="rId2"/>
+    <sheet name="old.user" sheetId="1" r:id="rId3"/>
+    <sheet name="old.priority" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -366,12 +361,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -386,9 +387,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -703,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1DA2CAC-BB47-4DB8-B72F-FD5740237F58}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,615 +800,494 @@
         <v>INSERT INTO function (Id_fun,Nam_fun,Sta_fun) VALUES ('4','Eliminar','4');</v>
       </c>
     </row>
+    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="str">
+        <f>"insert into "&amp;B$8&amp;" ("&amp;B$9&amp;","&amp;C$9&amp;","&amp;D$9&amp;") VALUES ('"&amp;B10&amp;"','"&amp;C10&amp;"','"&amp;D10&amp;"');"</f>
+        <v>insert into level (Id_level,Nam_level,Sta_level) VALUES ('1','God','1');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="str">
+        <f>"insert into "&amp;B$8&amp;" ("&amp;B$9&amp;","&amp;C$9&amp;","&amp;D$9&amp;") VALUES ('"&amp;B11&amp;"','"&amp;C11&amp;"','"&amp;D11&amp;"');"</f>
+        <v>insert into level (Id_level,Nam_level,Sta_level) VALUES ('2','Administrador','2');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="str">
+        <f>"insert into "&amp;B$8&amp;" ("&amp;B$9&amp;","&amp;C$9&amp;","&amp;D$9&amp;") VALUES ('"&amp;B12&amp;"','"&amp;C12&amp;"','"&amp;D12&amp;"');"</f>
+        <v>insert into level (Id_level,Nam_level,Sta_level) VALUES ('3','Supervisor','3');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13" t="str">
+        <f>"insert into "&amp;B$8&amp;" ("&amp;B$9&amp;","&amp;C$9&amp;","&amp;D$9&amp;") VALUES ('"&amp;B13&amp;"','"&amp;C13&amp;"','"&amp;D13&amp;"');"</f>
+        <v>insert into level (Id_level,Nam_level,Sta_level) VALUES ('4','Vendedor','4');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14" t="str">
+        <f>"insert into "&amp;B$8&amp;" ("&amp;B$9&amp;","&amp;C$9&amp;","&amp;D$9&amp;") VALUES ('"&amp;B14&amp;"','"&amp;C14&amp;"','"&amp;D14&amp;"');"</f>
+        <v>insert into level (Id_level,Nam_level,Sta_level) VALUES ('5','Cliente','5');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15" t="str">
+        <f>"insert into "&amp;B$8&amp;" ("&amp;B$9&amp;","&amp;C$9&amp;","&amp;D$9&amp;") VALUES ('"&amp;B15&amp;"','"&amp;C15&amp;"','"&amp;D15&amp;"');"</f>
+        <v>insert into level (Id_level,Nam_level,Sta_level) VALUES ('6','Usuario','6');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="str">
+        <f>"INSERT INTO "&amp;B$22&amp;" ("&amp;B$23&amp;","&amp;C$23&amp;","&amp;D$23&amp;","&amp;E$23&amp;") VALUES ('"&amp;B24&amp;"','"&amp;C24&amp;"','"&amp;D24&amp;"','"&amp;E24&amp;"');"</f>
+        <v>INSERT INTO system (Id_sys,State_sys,user_Id_user,level_Id_level) VALUES ('1','2','1','1');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25" t="str">
+        <f>"INSERT INTO "&amp;B$22&amp;" ("&amp;B$23&amp;","&amp;C$23&amp;","&amp;D$23&amp;","&amp;E$23&amp;") VALUES ('"&amp;B25&amp;"','"&amp;C25&amp;"','"&amp;D25&amp;"','"&amp;E25&amp;"');"</f>
+        <v>INSERT INTO system (Id_sys,State_sys,user_Id_user,level_Id_level) VALUES ('2','1','1','2');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" t="s">
+        <v>89</v>
+      </c>
+      <c r="G28" t="s">
+        <v>90</v>
+      </c>
+      <c r="H28" t="s">
+        <v>91</v>
+      </c>
+      <c r="I28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29" t="s">
+        <v>98</v>
+      </c>
+      <c r="H29" t="s">
+        <v>99</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29" t="str">
+        <f>"INSERT INTO "&amp;B$27&amp;" ("&amp;B$28&amp;","&amp;C$28&amp;","&amp;D$28&amp;","&amp;E$28&amp;","&amp;F$28&amp;","&amp;G$28&amp;","&amp;H$28&amp;","&amp;I$28&amp;") VALUES ('"&amp;B29&amp;"','"&amp;C29&amp;"','"&amp;D29&amp;"','"&amp;E29&amp;"','"&amp;F29&amp;"','"&amp;G29&amp;"','"&amp;H29&amp;"','"&amp;I29&amp;"');"</f>
+        <v>INSERT INTO warehouse (Id_wh,Cod_wh,Name_wh,Dat_wh,Cou_wh,Cit_wh,Dir_wh,Sta_wh) VALUES ('1','gino1','Gino Rodinis Ripley','06-01-2021','Chile','La Serena','Gregorio Cordovez 499','1');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" t="s">
+        <v>97</v>
+      </c>
+      <c r="G30" t="s">
+        <v>98</v>
+      </c>
+      <c r="H30" t="s">
+        <v>100</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30" t="str">
+        <f>"INSERT INTO "&amp;B$27&amp;" ("&amp;B$28&amp;","&amp;C$28&amp;","&amp;D$28&amp;","&amp;E$28&amp;","&amp;F$28&amp;","&amp;G$28&amp;","&amp;H$28&amp;","&amp;I$28&amp;") VALUES ('"&amp;B30&amp;"','"&amp;C30&amp;"','"&amp;D30&amp;"','"&amp;E30&amp;"','"&amp;F30&amp;"','"&amp;G30&amp;"','"&amp;H30&amp;"','"&amp;I30&amp;"');"</f>
+        <v>INSERT INTO warehouse (Id_wh,Cod_wh,Name_wh,Dat_wh,Cou_wh,Cit_wh,Dir_wh,Sta_wh) VALUES ('2','gino2','Gino Rodinis Falabella','06-01-2021','Chile','La Serena','Alberto Solari 1400','1');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="str">
+        <f>"INSERT INTO "&amp;B$32&amp;" ("&amp;B$33&amp;","&amp;C$33&amp;","&amp;D$33&amp;","&amp;E$33&amp;","&amp;F$33&amp;") VALUES ('"&amp;B34&amp;"','"&amp;C34&amp;"','"&amp;D34&amp;"','"&amp;E34&amp;"','"&amp;F34&amp;"');"</f>
+        <v>INSERT INTO level_user_warehouse (Id_luw,Sta_luw,user_Id_user,level_Id_level,warehouse_Id_wh) VALUES ('1','1','1','1','1');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="str">
+        <f>"INSERT INTO "&amp;B$32&amp;" ("&amp;B$33&amp;","&amp;C$33&amp;","&amp;D$33&amp;","&amp;E$33&amp;","&amp;F$33&amp;") VALUES ('"&amp;B35&amp;"','"&amp;C35&amp;"','"&amp;D35&amp;"','"&amp;E35&amp;"','"&amp;F35&amp;"');"</f>
+        <v>INSERT INTO level_user_warehouse (Id_luw,Sta_luw,user_Id_user,level_Id_level,warehouse_Id_wh) VALUES ('2','1','2','2','1');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36" t="str">
+        <f>"INSERT INTO "&amp;B$32&amp;" ("&amp;B$33&amp;","&amp;C$33&amp;","&amp;D$33&amp;","&amp;E$33&amp;","&amp;F$33&amp;") VALUES ('"&amp;B36&amp;"','"&amp;C36&amp;"','"&amp;D36&amp;"','"&amp;E36&amp;"','"&amp;F36&amp;"');"</f>
+        <v>INSERT INTO level_user_warehouse (Id_luw,Sta_luw,user_Id_user,level_Id_level,warehouse_Id_wh) VALUES ('3','1','1','1','2');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37" t="str">
+        <f>"INSERT INTO "&amp;B$32&amp;" ("&amp;B$33&amp;","&amp;C$33&amp;","&amp;D$33&amp;","&amp;E$33&amp;","&amp;F$33&amp;") VALUES ('"&amp;B37&amp;"','"&amp;C37&amp;"','"&amp;D37&amp;"','"&amp;E37&amp;"','"&amp;F37&amp;"');"</f>
+        <v>INSERT INTO level_user_warehouse (Id_luw,Sta_luw,user_Id_user,level_Id_level,warehouse_Id_wh) VALUES ('4','1','2','2','2');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB34776D-0845-4571-8E2F-2577A2CC4DAF}">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="str">
-        <f>"insert into "&amp;B$1&amp;" ("&amp;B$2&amp;","&amp;C$2&amp;","&amp;D$2&amp;") VALUES ('"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"');"</f>
-        <v>insert into level (Id_level,Nam_level,Sta_level) VALUES ('1','God','1');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="str">
-        <f t="shared" ref="E4:E8" si="0">"insert into "&amp;B$1&amp;" ("&amp;B$2&amp;","&amp;C$2&amp;","&amp;D$2&amp;") VALUES ('"&amp;B4&amp;"','"&amp;C4&amp;"','"&amp;D4&amp;"');"</f>
-        <v>insert into level (Id_level,Nam_level,Sta_level) VALUES ('2','Administrador','2');</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into level (Id_level,Nam_level,Sta_level) VALUES ('3','Supervisor','3');</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into level (Id_level,Nam_level,Sta_level) VALUES ('4','Vendedor','4');</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into level (Id_level,Nam_level,Sta_level) VALUES ('5','Cliente','5');</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into level (Id_level,Nam_level,Sta_level) VALUES ('6','Usuario','6');</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56FDED12-22F9-4F75-9E32-4810ACDB50AB}">
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="8" max="8" width="11.42578125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="str">
-        <f>"INSERT INTO "&amp;B$1&amp;" ("&amp;B$2&amp;","&amp;C$2&amp;","&amp;D$2&amp;","&amp;E$2&amp;","&amp;F$2&amp;","&amp;G$2&amp;","&amp;H$2&amp;","&amp;I$2&amp;") VALUES ('"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"');"</f>
-        <v>INSERT INTO user (Id_user,Cod_user,Nam_user,Lasn_user,Nick_user,Pass_user,Dat_user,Sta_user) VALUES ('1','god1','Helmo','Velasquez','hejevero','Hejevero1993','06-01-2021','1');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="str">
-        <f>"INSERT INTO "&amp;B$1&amp;" ("&amp;B$2&amp;","&amp;C$2&amp;","&amp;D$2&amp;","&amp;E$2&amp;","&amp;F$2&amp;","&amp;G$2&amp;","&amp;H$2&amp;","&amp;I$2&amp;") VALUES ('"&amp;B4&amp;"','"&amp;C4&amp;"','"&amp;D4&amp;"','"&amp;E4&amp;"','"&amp;F4&amp;"','"&amp;G4&amp;"','"&amp;H4&amp;"','"&amp;I4&amp;"');"</f>
-        <v>INSERT INTO user (Id_user,Cod_user,Nam_user,Lasn_user,Nick_user,Pass_user,Dat_user,Sta_user) VALUES ('2','adm1','Adminitrador','Principal','admin','admin','06-01-2021','1');</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B2F3BAA-0719-487D-80D3-31E98ADF8247}">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="str">
-        <f>"INSERT INTO "&amp;B$1&amp;" ("&amp;B$2&amp;","&amp;C$2&amp;","&amp;D$2&amp;","&amp;E$2&amp;") VALUES ('"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"');"</f>
-        <v>INSERT INTO system (Id_sys,State_sys,user_Id_user,level_Id_level) VALUES ('1','2','1','1');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4" t="str">
-        <f>"INSERT INTO "&amp;B$1&amp;" ("&amp;B$2&amp;","&amp;C$2&amp;","&amp;D$2&amp;","&amp;E$2&amp;") VALUES ('"&amp;B4&amp;"','"&amp;C4&amp;"','"&amp;D4&amp;"','"&amp;E4&amp;"');"</f>
-        <v>INSERT INTO system (Id_sys,State_sys,user_Id_user,level_Id_level) VALUES ('2','1','1','2');</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9578B6-3FA4-4961-B4B3-4880E4A28AE3}">
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="str">
-        <f>"INSERT INTO "&amp;B$1&amp;" ("&amp;B$2&amp;","&amp;C$2&amp;","&amp;D$2&amp;","&amp;E$2&amp;","&amp;F$2&amp;","&amp;G$2&amp;","&amp;H$2&amp;","&amp;I$2&amp;") VALUES ('"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"');"</f>
-        <v>INSERT INTO warehouse (Id_wh,Cod_wh,Name_wh,Dat_wh,Cou_wh,Cit_wh,Dir_wh,Sta_wh) VALUES ('1','gino1','Gino Rodinis Ripley','06-01-2021','Chile','La Serena','Gregorio Cordovez 499','1');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="str">
-        <f>"INSERT INTO "&amp;B$1&amp;" ("&amp;B$2&amp;","&amp;C$2&amp;","&amp;D$2&amp;","&amp;E$2&amp;","&amp;F$2&amp;","&amp;G$2&amp;","&amp;H$2&amp;","&amp;I$2&amp;") VALUES ('"&amp;B4&amp;"','"&amp;C4&amp;"','"&amp;D4&amp;"','"&amp;E4&amp;"','"&amp;F4&amp;"','"&amp;G4&amp;"','"&amp;H4&amp;"','"&amp;I4&amp;"');"</f>
-        <v>INSERT INTO warehouse (Id_wh,Cod_wh,Name_wh,Dat_wh,Cou_wh,Cit_wh,Dir_wh,Sta_wh) VALUES ('2','gino2','Gino Rodinis Falabella','06-01-2021','Chile','La Serena','Alberto Solari 1400','1');</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0866B2-056D-490A-9391-9AE94CBDFBB3}">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="str">
-        <f>"INSERT INTO "&amp;B$1&amp;" ("&amp;B$2&amp;","&amp;C$2&amp;","&amp;D$2&amp;","&amp;E$2&amp;","&amp;F$2&amp;") VALUES ('"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"');"</f>
-        <v>INSERT INTO level_user_warehouse (Id_luw,Sta_luw,user_Id_user,level_Id_level,warehouse_Id_wh) VALUES ('1','1','1','1','1');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="str">
-        <f t="shared" ref="G4:G6" si="0">"INSERT INTO "&amp;B$1&amp;" ("&amp;B$2&amp;","&amp;C$2&amp;","&amp;D$2&amp;","&amp;E$2&amp;","&amp;F$2&amp;") VALUES ('"&amp;B4&amp;"','"&amp;C4&amp;"','"&amp;D4&amp;"','"&amp;E4&amp;"','"&amp;F4&amp;"');"</f>
-        <v>INSERT INTO level_user_warehouse (Id_luw,Sta_luw,user_Id_user,level_Id_level,warehouse_Id_wh) VALUES ('2','1','2','2','1');</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO level_user_warehouse (Id_luw,Sta_luw,user_Id_user,level_Id_level,warehouse_Id_wh) VALUES ('3','1','1','1','2');</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO level_user_warehouse (Id_luw,Sta_luw,user_Id_user,level_Id_level,warehouse_Id_wh) VALUES ('4','1','2','2','2');</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F1A767C-5E41-4655-B589-BD2426652570}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -1512,7 +1393,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA482B1-B850-43B5-9E5B-DA44FEB39EF7}">
   <dimension ref="A1:J8"/>
   <sheetViews>
@@ -1758,7 +1639,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7DFD83-82C9-48F8-AE99-BA46C77CC683}">
   <dimension ref="A1:F6"/>
   <sheetViews>
